--- a/pred_ohlcv/54_21/2019-11-20 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 CTXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-9815.966300000007</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-9815.966300000007</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-9791.413500000008</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>12142.59409999999</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>33264.198</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>33264.198</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>46708.66395736842</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>57690.55195736842</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>71738.31035736842</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>46087.64705736841</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>34643.44975736841</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>42435.44475736841</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>42435.44475736841</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>55571.79815736841</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>288610.7496822081</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>343322.887982208</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>309788.2388822081</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>331969.2743822081</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>375443.7981822081</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>324310.7299822081</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>334602.9186822081</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>343419.0348822081</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>467118.1247822081</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>444930.2898822081</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>436895.9103822081</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>501338.7900822081</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>521512.8676822081</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>498539.7431822082</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>545302.4242569654</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>588765.2519182994</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>540528.5260182994</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>540528.5260182994</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>481020.8324182994</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>452051.1913182994</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>456754.7283182994</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>456754.7283182994</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>412494.9358182994</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>412494.9358182994</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>426851.3410182994</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>428083.4982182994</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>429084.1428182994</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>434156.8067182994</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>422030.1585182994</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>430065.3969182994</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>472461.3262182993</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>462848.9425182993</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>459848.9425182993</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>459848.9425182993</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>469490.9545182993</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>535364.8098182993</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>547067.1042182993</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>526161.7955182992</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>475565.7933182992</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>484474.5570182992</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>445336.3354182992</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>464522.6790182993</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>451779.1226182993</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>436555.0203182992</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>437892.9513182992</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>441940.4602182992</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>430608.9659182992</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>410553.8512182992</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>410733.5963163385</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>411064.7432163385</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>411064.7432163385</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>415780.1550163385</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>416251.1856163385</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>407778.3025163385</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>415405.7981163385</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>426797.5026163385</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>426797.5026163385</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>416797.5026163385</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>447856.4952163385</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>447856.4952163385</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>392617.1682163385</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>382617.1682163385</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>410792.7301163385</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>415947.5678848114</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>415947.5678848114</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>299181.0783848114</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>267261.3003848114</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>264618.5893848115</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>319601.2589590691</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>321279.0422590691</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>313879.2260590691</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>313879.2260590691</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>306301.3759590691</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>307604.2880590691</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>307604.2880590691</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>312575.4770590691</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>318286.9274590691</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>318101.9274590691</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>319287.7731590691</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>319287.7731590691</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>336353.3865590691</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>335553.3865590691</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>324651.9551590691</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>313419.0116590691</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>338935.4606590691</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>338935.4606590691</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>360322.6435590691</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>359314.9324590691</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>359314.9324590691</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>368826.9633590691</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>368514.3313590692</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>370070.7684590691</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>369070.1599590692</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>369070.1599590692</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>396449.4066590692</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>398416.8674590692</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>398211.7464590692</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>393599.8929590692</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>393624.8929590692</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>393624.8929590692</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>393140.9949590692</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>394240.0248708339</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>393754.0248708339</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>393754.0248708339</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>397348.6045708339</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>397348.6045708339</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>405441.9916708339</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>405441.9916708339</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>425304.9995590692</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>448772.4168590692</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>448772.4168590692</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>433809.3584209739</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>409450.4626209739</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>424628.4760209739</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>424628.4760209739</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>738917.4793543073</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>1625204.098588593</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>1625204.098588593</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>1641874.223288593</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>1641874.223288593</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>1661478.273488593</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>1652143.302988593</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>1675294.074788593</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>1636654.828988593</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>1648189.098988593</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>1940887.202549888</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>1970491.057649888</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>1973046.442649888</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>1973046.442649888</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>1940776.327349888</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>1857551.705549888</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>1839750.334349888</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>1816214.455749888</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>1809274.381049888</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>1804112.939049888</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>1896227.074149888</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1896227.074149888</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>1902604.784349888</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>1902604.784349888</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>1902604.784349888</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>1953125.929449888</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>1953125.929449888</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>1900968.064107546</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>1889485.027407546</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>1890550.951007546</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>1855831.664707546</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>1871422.395407546</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>2106177.635553392</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>2092196.613953392</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>2148111.344653392</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>2148111.344653392</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>2116693.170310661</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>2113443.545610661</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>2035441.516610661</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2032946.081010661</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2032946.081010661</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>2037853.601210661</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>2037648.065810661</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>2023305.656510661</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>2023305.656510661</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>2015203.275910661</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>2033851.643410661</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>2033851.643410661</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>2033484.15511066</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>2033484.15511066</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>2030764.19341066</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>2030779.18171066</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>2030779.18171066</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1996345.49461066</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1982081.180410661</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1982081.180410661</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1931309.739710661</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1839771.523210661</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1849087.194210661</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1860163.154010661</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1872125.296610661</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1872125.296610661</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1869949.091310661</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1861989.961410661</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1861989.961410661</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-20 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 CTXC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-9726.759900000008</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4074.270200000008</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5805.730700000008</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-5805.730700000008</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-8117.151100000008</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8117.151100000008</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8366.922700000008</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>12142.59409999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>11592.99959999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>33264.198</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>44151.94625736842</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>42861.90195736842</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>46708.66395736842</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>71738.31035736842</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>34643.44975736841</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>42435.44475736841</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>42435.44475736841</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>55571.79815736841</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>288610.7496822081</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>343322.887982208</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>309788.2388822081</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>331969.2743822081</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>375443.7981822081</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>324310.7299822081</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>334602.9186822081</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>343419.0348822081</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>467118.1247822081</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>444930.2898822081</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>436895.9103822081</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>501338.7900822081</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>521512.8676822081</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>498539.7431822082</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>545302.4242569654</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>588765.2519182994</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>540528.5260182994</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>540528.5260182994</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>481020.8324182994</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>452051.1913182994</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>456754.7283182994</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>456754.7283182994</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>412494.9358182994</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>412494.9358182994</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>426851.3410182994</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>428083.4982182994</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>429084.1428182994</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>434156.8067182994</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>422030.1585182994</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>430065.3969182994</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>472461.3262182993</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>462848.9425182993</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>459848.9425182993</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>459848.9425182993</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>469490.9545182993</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>535364.8098182993</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>547067.1042182993</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>526161.7955182992</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>475565.7933182992</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>484474.5570182992</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>445336.3354182992</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>464522.6790182993</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>451779.1226182993</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>436555.0203182992</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>437892.9513182992</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>441940.4602182992</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>430608.9659182992</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>410553.8512182992</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>410733.5963163385</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>411064.7432163385</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>411064.7432163385</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>415780.1550163385</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>416251.1856163385</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>407778.3025163385</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>415405.7981163385</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>426797.5026163385</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>426797.5026163385</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>416797.5026163385</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>447856.4952163385</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>447856.4952163385</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>392617.1682163385</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>382617.1682163385</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>410792.7301163385</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>415947.5678848114</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>415947.5678848114</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>299181.0783848114</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>267261.3003848114</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>264618.5893848115</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>319601.2589590691</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>321279.0422590691</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>313879.2260590691</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>313879.2260590691</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>306301.3759590691</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>307604.2880590691</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>307604.2880590691</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>312575.4770590691</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>318286.9274590691</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>318101.9274590691</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>319287.7731590691</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>319287.7731590691</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>336353.3865590691</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>335553.3865590691</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>324651.9551590691</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>313419.0116590691</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>338935.4606590691</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>338935.4606590691</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>360322.6435590691</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>359314.9324590691</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>359314.9324590691</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>368826.9633590691</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>368514.3313590692</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>370070.7684590691</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>369070.1599590692</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>369070.1599590692</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>396449.4066590692</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>398416.8674590692</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>398211.7464590692</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>393599.8929590692</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>393624.8929590692</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>393624.8929590692</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>393140.9949590692</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>394240.0248708339</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>393754.0248708339</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>393754.0248708339</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>397348.6045708339</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>397348.6045708339</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>405441.9916708339</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>405441.9916708339</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>425304.9995590692</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>448772.4168590692</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>448772.4168590692</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>433809.3584209739</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>409450.4626209739</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>424628.4760209739</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>424628.4760209739</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>738917.4793543073</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>1625204.098588593</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>1625204.098588593</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>1641874.223288593</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>1641874.223288593</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>1661478.273488593</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>1652143.302988593</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>1675294.074788593</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>1636654.828988593</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>1648189.098988593</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>1717883.116468079</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>1867067.018668079</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>1892992.728268079</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>1868648.414168079</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>2057709.459216555</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>1940887.202549888</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>1970491.057649888</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>1938344.784549888</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>1973046.442649888</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>1973046.442649888</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>1940776.327349888</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>1857551.705549888</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>1839750.334349888</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>1839750.334349888</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>1823064.489649888</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>1834731.349249888</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>1834731.349249888</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>1823375.519649888</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>1792855.964049888</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>1792855.964049888</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>1808980.229949888</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>1816214.455749888</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>1816214.455749888</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>1809274.381049888</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>1804112.939049888</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>1879634.653549888</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>1896227.074149888</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1896227.074149888</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>1902604.784349888</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>1902604.784349888</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>1902604.784349888</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>1953125.929449888</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>1953125.929449888</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>1900968.064107546</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>1889485.027407546</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>1890550.951007546</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>1855831.664707546</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>1855831.664707546</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>1855835.664707546</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>1871422.395407546</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>1871422.395407546</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>1871422.395407546</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>1879228.105707546</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>1879228.105707546</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>1989713.447707546</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>2106177.635553392</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>2092196.613953392</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>2148111.344653392</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>2148111.344653392</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>2116693.170310661</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>2113443.545610661</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>2035441.516610661</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2032946.081010661</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2032946.081010661</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>2037853.601210661</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>2037648.065810661</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>2023305.656510661</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>2023305.656510661</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>2015203.275910661</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>2033851.643410661</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>2033851.643410661</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>2033484.15511066</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>2033484.15511066</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>2030764.19341066</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>2030779.18171066</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>2030779.18171066</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1996345.49461066</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1982081.180410661</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1982081.180410661</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1931309.739710661</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1839771.523210661</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1849087.194210661</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1860163.154010661</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1860147.554010661</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1872125.296610661</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1872125.296610661</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1869949.091310661</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1861989.961410661</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1861989.961410661</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1868744.49901066</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1867162.86311066</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>1899069.61771066</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>1892092.16591066</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>1934991.40051066</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>1934584.67831066</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>1938471.31881066</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>1945590.785334985</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>1934430.126734985</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>1942881.413334985</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>1942881.413334985</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>1887837.202234985</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>1887837.202234985</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>1887737.202234985</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
